--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanInt.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanInt.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D64A90-0521-47F3-A0D3-FA5D804BA6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999F9AFB-B10D-4A48-9247-A09AA1BE0212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -161,10 +152,6 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,6 +372,9 @@
     <t>00A:傳統帳冊
 201:利變年金帳冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -559,14 +549,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -575,9 +565,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,13 +592,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,9 +664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -723,9 +704,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,26 +739,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,26 +774,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1014,713 +961,699 @@
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="48" style="4" customWidth="1"/>
-    <col min="8" max="8" width="41" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="5"/>
+    <col min="8" max="8" width="41" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="10" t="s">
+      <c r="C9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="19">
+        <v>6</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="19">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>1</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="22">
-        <v>6</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>2</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="22">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="F10" s="19"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
         <f t="shared" ref="A11:A34" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="19">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="19">
+        <v>8</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="19">
+        <v>8</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="19">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="19">
+        <v>6</v>
+      </c>
+      <c r="F17" s="19">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="19">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="19">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="22">
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="19">
+        <v>16</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="19">
+        <v>16</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="19">
+        <v>6</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="19">
+        <v>6</v>
+      </c>
+      <c r="F23" s="19">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="F24" s="19"/>
+      <c r="G24" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="19">
+        <v>8</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="C26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="19">
+        <v>16</v>
+      </c>
+      <c r="F26" s="19">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="19">
         <v>3</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="F28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="17" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="23">
         <v>3</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="22">
-        <v>8</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="22">
-        <v>8</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="22">
-        <v>16</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="22">
-        <v>6</v>
-      </c>
-      <c r="F17" s="22">
-        <v>4</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="22">
-        <v>16</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="22">
-        <v>16</v>
-      </c>
-      <c r="F19" s="22">
-        <v>2</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="22">
-        <v>16</v>
-      </c>
-      <c r="F20" s="22">
-        <v>2</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="22">
-        <v>16</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="22">
-        <v>6</v>
-      </c>
-      <c r="F22" s="22">
-        <v>4</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="22">
-        <v>6</v>
-      </c>
-      <c r="F23" s="22">
-        <v>4</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="22">
-        <v>3</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="22">
-        <v>8</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="22">
-        <v>16</v>
-      </c>
-      <c r="F26" s="22">
-        <v>2</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="22">
-        <v>1</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="22">
-        <v>3</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="21" t="s">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="26">
-        <v>3</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
+    <row r="30" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <f>A28+1</f>
         <v>21</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="22">
+      <c r="D30" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="19">
         <v>4</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
+      <c r="A31" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="5"/>
+      <c r="D31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
+      <c r="A32" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="19">
+        <v>6</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="22">
+      <c r="D34" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="19">
         <v>6</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="22">
-        <v>6</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="5"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1756,25 +1689,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>85</v>
+      <c r="C2" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
